--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,13 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sagarnildasgupta/Documents/Personal/17GitHub/data/candy-power-ranking/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC534D07-4FC3-BA42-AEDF-D43BCEBE7430}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53D4922E-D7B5-784F-B1A1-31FACC6A532C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{DDD49857-D0BB-C243-A6D4-5A26F30EB25D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{DDD49857-D0BB-C243-A6D4-5A26F30EB25D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="BackPropagation" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet8" sheetId="10" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet6" sheetId="8" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="7" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId6"/>
+    <sheet name="Non-chocolate" sheetId="4" r:id="rId7"/>
+    <sheet name="Sheet4" sheetId="5" r:id="rId8"/>
+    <sheet name="Sheet3" sheetId="6" r:id="rId9"/>
+    <sheet name="Sheet7" sheetId="9" r:id="rId10"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet6!$A$2:$A$8</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet6!$B$1</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet6!$B$2:$B$8</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet6!$A$2:$A$8</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet6!$B$1</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet6!$B$2:$B$8</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="71">
   <si>
     <t>Y_pred(1st model)</t>
   </si>
@@ -52,19 +69,275 @@
   </si>
   <si>
     <t>With 7 IDV</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>chocolate</t>
+  </si>
+  <si>
+    <t>fruity</t>
+  </si>
+  <si>
+    <t>peanutyalmondy</t>
+  </si>
+  <si>
+    <t>crispedricewafer</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>sugarpercentage</t>
+  </si>
+  <si>
+    <t>pricepercentage</t>
+  </si>
+  <si>
+    <t>co-eff</t>
+  </si>
+  <si>
+    <t>competitorname</t>
+  </si>
+  <si>
+    <t>caramel</t>
+  </si>
+  <si>
+    <t>nougat</t>
+  </si>
+  <si>
+    <t>bar</t>
+  </si>
+  <si>
+    <t>pluribus</t>
+  </si>
+  <si>
+    <t>sugarpercent</t>
+  </si>
+  <si>
+    <t>pricepercent</t>
+  </si>
+  <si>
+    <t>winpercent</t>
+  </si>
+  <si>
+    <t>ReeseÕs Peanut Butter cup</t>
+  </si>
+  <si>
+    <t>ReeseÕs Miniatures</t>
+  </si>
+  <si>
+    <t>Twix</t>
+  </si>
+  <si>
+    <t>Kit Kat</t>
+  </si>
+  <si>
+    <t>Snickers</t>
+  </si>
+  <si>
+    <t>ReeseÕs pieces</t>
+  </si>
+  <si>
+    <t>Milky Way</t>
+  </si>
+  <si>
+    <t>ReeseÕs stuffed with pieces</t>
+  </si>
+  <si>
+    <t>Peanut butter M&amp;MÕs</t>
+  </si>
+  <si>
+    <t>Nestle Butterfinger</t>
+  </si>
+  <si>
+    <t>Starburst</t>
+  </si>
+  <si>
+    <t>Skittles original</t>
+  </si>
+  <si>
+    <t>Sour Patch Kids</t>
+  </si>
+  <si>
+    <t>sugarbyprice</t>
+  </si>
+  <si>
+    <t>winbyprice</t>
+  </si>
+  <si>
+    <t>CANDY TYPE</t>
+  </si>
+  <si>
+    <t>AVG. WIN SHARE</t>
+  </si>
+  <si>
+    <t>VALUE ADD TO WIN %</t>
+  </si>
+  <si>
+    <t>Chocolate</t>
+  </si>
+  <si>
+    <t>Fruit</t>
+  </si>
+  <si>
+    <t>Peanuts &amp; nuts</t>
+  </si>
+  <si>
+    <t>Crispy</t>
+  </si>
+  <si>
+    <t>Caramel</t>
+  </si>
+  <si>
+    <t>Nougat</t>
+  </si>
+  <si>
+    <t>Multi-piece</t>
+  </si>
+  <si>
+    <t>Candy bar</t>
+  </si>
+  <si>
+    <t>Hard candy</t>
+  </si>
+  <si>
+    <t>Value added to win percentage</t>
+  </si>
+  <si>
+    <t>sugar percentage</t>
+  </si>
+  <si>
+    <t>price percentage</t>
+  </si>
+  <si>
+    <t>Hard Candy</t>
+  </si>
+  <si>
+    <t>Best candy with chocolate</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Reese’s Peanut Butter cup</t>
+  </si>
+  <si>
+    <t>Best candy with fruit</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Starburst</t>
+  </si>
+  <si>
+    <t>Best candy with nuts</t>
+  </si>
+  <si>
+    <t>Best Candy with crispedricewafer</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Twix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Best Candy which is not hard </t>
+  </si>
+  <si>
+    <t>Candy with more sugar</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Reese’s stuffed with pieces</t>
+  </si>
+  <si>
+    <t>Cheapest Candy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tootsie Roll Midgies</t>
+  </si>
+  <si>
+    <t>Cluster No</t>
+  </si>
+  <si>
+    <t>No of candies</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color rgb="FF000000"/>
+      <name val="Inherit"/>
+    </font>
+    <font>
+      <sz val="9.6"/>
+      <color rgb="FF222222"/>
+      <name val="Inherit"/>
+    </font>
+    <font>
+      <sz val="9.6"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.5"/>
+      <color rgb="FF222222"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF222222"/>
+      <name val="Georgia"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -75,7 +348,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -98,11 +371,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -113,9 +438,74 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment textRotation="255"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment textRotation="255"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment textRotation="255"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -131,6 +521,1804 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet6!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Value added to win percentage</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet6!$A$2:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Chocolate</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Fruit</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Peanuts &amp; nuts</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Crispy</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Hard Candy</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sugar percentage</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>price percentage</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet6!$B$2:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>19.987300000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.6227999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.0435</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.4243000000000006</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-6.0456000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.5396000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-5.4627999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E63B-004C-A06B-38C04356A62B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="1443009920"/>
+        <c:axId val="1433107792"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1443009920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="high"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1433107792"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1433107792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1443009920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst>
+      <a:outerShdw blurRad="50800" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+        <a:srgbClr val="000000">
+          <a:alpha val="0"/>
+        </a:srgbClr>
+      </a:outerShdw>
+    </a:effectLst>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AVG. WIN SHARE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet5!$A$2:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Nougat</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Crispy</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Chocolate</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Candy bar</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Caramel</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Peanuts &amp; nuts</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Hard candy</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Fruit</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Multi-piece</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet5!$B$2:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.41</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A23C-7549-B4BA-D810DD9099A4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1430773120"/>
+        <c:axId val="1431066640"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1430773120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1431066640"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1431066640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1430773120"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>654050</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D33D1B79-ACE1-0D4E-9015-938053F88DCF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>577850</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FD72D53-FD82-2748-89BA-C9DF6695C8AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -432,11 +2620,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A4FC05F-FA8C-2F4A-9BDF-C190C6F91871}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="15.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="15.6640625" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="15.6640625" style="2"/>
     <col min="2" max="6" width="15.6640625" style="1"/>
@@ -445,19 +2633,19 @@
     <col min="9" max="16384" width="15.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C1" s="4" t="s">
+    <row r="1" spans="2:8" ht="34" customHeight="1">
+      <c r="C1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4" t="s">
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-    </row>
-    <row r="2" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+    </row>
+    <row r="2" spans="2:8" ht="34">
       <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
@@ -480,7 +2668,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:8">
       <c r="B3" s="3">
         <v>45.736747999999899</v>
       </c>
@@ -507,7 +2695,7 @@
         <v>164.31068827840477</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:8">
       <c r="B4" s="3">
         <v>33.437550000000002</v>
       </c>
@@ -534,7 +2722,7 @@
         <v>36.342095047060333</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:8">
       <c r="B5" s="3">
         <v>81.642914000000005</v>
       </c>
@@ -561,7 +2749,7 @@
         <v>461.8801274779521</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:8">
       <c r="B6" s="3">
         <v>41.389557000000003</v>
       </c>
@@ -588,7 +2776,7 @@
         <v>21.26206912163083</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:8">
       <c r="B7" s="3">
         <v>52.3414649999999</v>
       </c>
@@ -615,7 +2803,7 @@
         <v>16.694598732108261</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:8">
       <c r="B8" s="3">
         <v>41.904308</v>
       </c>
@@ -642,7 +2830,7 @@
         <v>130.13183548576464</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:8">
       <c r="B9" s="3">
         <v>76.673781999999903</v>
       </c>
@@ -669,7 +2857,7 @@
         <v>78.49954507289155</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:8">
       <c r="B10" s="3">
         <v>44.375518999999898</v>
       </c>
@@ -696,7 +2884,7 @@
         <v>0.28681905821748321</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:8">
       <c r="B11" s="3">
         <v>54.526451000000002</v>
       </c>
@@ -723,7 +2911,7 @@
         <v>74.297091450661796</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:8">
       <c r="B12" s="3">
         <v>59.863997999999903</v>
       </c>
@@ -750,7 +2938,7 @@
         <v>231.20361552626471</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:8">
       <c r="B13" s="3">
         <v>23.4178239999999</v>
       </c>
@@ -777,7 +2965,7 @@
         <v>621.04901499399898</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:8">
       <c r="B14" s="3">
         <v>71.465050000000005</v>
       </c>
@@ -804,7 +2992,7 @@
         <v>1.3727317044368152</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:8">
       <c r="B15" s="3">
         <v>29.7036909999999</v>
       </c>
@@ -831,7 +3019,7 @@
         <v>57.327957974663448</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:8">
       <c r="B16" s="3">
         <v>34.722000000000001</v>
       </c>
@@ -858,7 +3046,7 @@
         <v>555.12536652961046</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8">
       <c r="B17" s="3">
         <v>60.800700999999997</v>
       </c>
@@ -885,7 +3073,7 @@
         <v>2.1570458725877235</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8">
       <c r="B18" s="3">
         <v>73.099556000000007</v>
       </c>
@@ -912,7 +3100,7 @@
         <v>287.22459962209342</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8">
       <c r="B19" s="3">
         <v>27.303864999999998</v>
       </c>
@@ -939,7 +3127,7 @@
         <v>330.55947932870384</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" ht="17">
       <c r="A20" s="2" t="s">
         <v>6</v>
       </c>
@@ -959,4 +3147,1599 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EBEDF49-9989-744B-A393-1904478B99B8}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="47" customWidth="1"/>
+    <col min="2" max="2" width="32.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17">
+      <c r="A1" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17">
+      <c r="A2" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17">
+      <c r="A3" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17">
+      <c r="A4" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="17">
+      <c r="A5" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="17">
+      <c r="A6" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="17">
+      <c r="A7" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FD4C734-A0A1-4040-9372-1D154F3A8712}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="33">
+        <v>0</v>
+      </c>
+      <c r="B2" s="33">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="33">
+        <v>1</v>
+      </c>
+      <c r="B3" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="33">
+        <v>2</v>
+      </c>
+      <c r="B4" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="33">
+        <v>3</v>
+      </c>
+      <c r="B5" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="33">
+        <v>4</v>
+      </c>
+      <c r="B6" s="33">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20497B01-40FD-FA48-A4DA-BE6643B3726A}">
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11:H20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" customWidth="1"/>
+    <col min="8" max="8" width="15.5" style="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>18.766005870000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>6.8239705300000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>12.177409089999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>6.9953815600000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>-6.9090256400000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>8.8875578999999991</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>-9.7264320200000007</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD7D61EE-D8EE-C74B-9134-F6ECB51805B7}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17" thickBot="1">
+      <c r="A1" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17" thickBot="1">
+      <c r="A2" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="29">
+        <v>19.987300000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17" thickBot="1">
+      <c r="A3" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="29">
+        <v>8.6227999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17" thickBot="1">
+      <c r="A4" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="29">
+        <v>10.0435</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="17" thickBot="1">
+      <c r="A5" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="29">
+        <v>9.4243000000000006</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="17" thickBot="1">
+      <c r="A6" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="29">
+        <v>-6.0456000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="17" thickBot="1">
+      <c r="A7" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="29">
+        <v>9.5396000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="17" thickBot="1">
+      <c r="A8" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="29">
+        <v>-5.4627999999999997</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6B49185-8C6F-DC42-8DEA-61408B42519B}">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="23">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="23">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="23">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="23">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="23">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="23">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="23">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="23">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="23">
+        <v>0.41</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:B10">
+    <sortCondition descending="1" ref="B1"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F6741F8-E816-F444-A005-3FB45C6C89B0}">
+  <dimension ref="C14:P24"/>
+  <sheetViews>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15:P24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="16.5" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="5" max="13" width="5" customWidth="1"/>
+    <col min="14" max="16" width="5" style="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="14" spans="3:16" ht="195">
+      <c r="C14" s="5"/>
+      <c r="D14" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N14" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="O14" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="P14" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="3:16" ht="30" customHeight="1">
+      <c r="C15" s="6">
+        <v>52</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="7">
+        <v>1</v>
+      </c>
+      <c r="F15" s="7">
+        <v>0</v>
+      </c>
+      <c r="G15" s="7">
+        <v>0</v>
+      </c>
+      <c r="H15" s="7">
+        <v>1</v>
+      </c>
+      <c r="I15" s="7">
+        <v>0</v>
+      </c>
+      <c r="J15" s="7">
+        <v>0</v>
+      </c>
+      <c r="K15" s="7">
+        <v>0</v>
+      </c>
+      <c r="L15" s="7">
+        <v>0</v>
+      </c>
+      <c r="M15" s="7">
+        <v>0</v>
+      </c>
+      <c r="N15" s="9">
+        <v>0.72</v>
+      </c>
+      <c r="O15" s="9">
+        <v>0.65100000000000002</v>
+      </c>
+      <c r="P15" s="9">
+        <v>84.180289999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="3:16" ht="26">
+      <c r="C16" s="6">
+        <v>51</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="7">
+        <v>1</v>
+      </c>
+      <c r="F16" s="7">
+        <v>0</v>
+      </c>
+      <c r="G16" s="7">
+        <v>0</v>
+      </c>
+      <c r="H16" s="7">
+        <v>1</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7">
+        <v>0</v>
+      </c>
+      <c r="K16" s="7">
+        <v>0</v>
+      </c>
+      <c r="L16" s="7">
+        <v>0</v>
+      </c>
+      <c r="M16" s="7">
+        <v>0</v>
+      </c>
+      <c r="N16" s="9">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="O16" s="9">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="P16" s="9">
+        <v>81.866257000000004</v>
+      </c>
+    </row>
+    <row r="17" spans="3:16">
+      <c r="C17" s="6">
+        <v>79</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="7">
+        <v>1</v>
+      </c>
+      <c r="F17" s="7">
+        <v>0</v>
+      </c>
+      <c r="G17" s="7">
+        <v>1</v>
+      </c>
+      <c r="H17" s="7">
+        <v>0</v>
+      </c>
+      <c r="I17" s="7">
+        <v>0</v>
+      </c>
+      <c r="J17" s="7">
+        <v>1</v>
+      </c>
+      <c r="K17" s="7">
+        <v>0</v>
+      </c>
+      <c r="L17" s="7">
+        <v>1</v>
+      </c>
+      <c r="M17" s="7">
+        <v>0</v>
+      </c>
+      <c r="N17" s="9">
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="O17" s="9">
+        <v>0.90600000000000003</v>
+      </c>
+      <c r="P17" s="9">
+        <v>81.642914000000005</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16">
+      <c r="C18" s="6">
+        <v>28</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="7">
+        <v>1</v>
+      </c>
+      <c r="F18" s="7">
+        <v>0</v>
+      </c>
+      <c r="G18" s="7">
+        <v>0</v>
+      </c>
+      <c r="H18" s="7">
+        <v>0</v>
+      </c>
+      <c r="I18" s="7">
+        <v>0</v>
+      </c>
+      <c r="J18" s="7">
+        <v>1</v>
+      </c>
+      <c r="K18" s="7">
+        <v>0</v>
+      </c>
+      <c r="L18" s="7">
+        <v>1</v>
+      </c>
+      <c r="M18" s="7">
+        <v>0</v>
+      </c>
+      <c r="N18" s="9">
+        <v>0.313</v>
+      </c>
+      <c r="O18" s="9">
+        <v>0.51100000000000001</v>
+      </c>
+      <c r="P18" s="9">
+        <v>76.768600000000006</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16">
+      <c r="C19" s="6">
+        <v>64</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="7">
+        <v>1</v>
+      </c>
+      <c r="F19" s="7">
+        <v>0</v>
+      </c>
+      <c r="G19" s="7">
+        <v>1</v>
+      </c>
+      <c r="H19" s="7">
+        <v>1</v>
+      </c>
+      <c r="I19" s="7">
+        <v>1</v>
+      </c>
+      <c r="J19" s="7">
+        <v>0</v>
+      </c>
+      <c r="K19" s="7">
+        <v>0</v>
+      </c>
+      <c r="L19" s="7">
+        <v>1</v>
+      </c>
+      <c r="M19" s="7">
+        <v>0</v>
+      </c>
+      <c r="N19" s="9">
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="O19" s="9">
+        <v>0.65100000000000002</v>
+      </c>
+      <c r="P19" s="9">
+        <v>76.673782000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="3:16">
+      <c r="C20" s="6">
+        <v>53</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="7">
+        <v>1</v>
+      </c>
+      <c r="F20" s="7">
+        <v>0</v>
+      </c>
+      <c r="G20" s="7">
+        <v>0</v>
+      </c>
+      <c r="H20" s="7">
+        <v>1</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0</v>
+      </c>
+      <c r="J20" s="7">
+        <v>0</v>
+      </c>
+      <c r="K20" s="7">
+        <v>0</v>
+      </c>
+      <c r="L20" s="7">
+        <v>0</v>
+      </c>
+      <c r="M20" s="7">
+        <v>1</v>
+      </c>
+      <c r="N20" s="9">
+        <v>0.40600000000000003</v>
+      </c>
+      <c r="O20" s="9">
+        <v>0.65100000000000002</v>
+      </c>
+      <c r="P20" s="9">
+        <v>73.434989999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" ht="21" customHeight="1">
+      <c r="C21" s="6">
+        <v>36</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="7">
+        <v>1</v>
+      </c>
+      <c r="F21" s="7">
+        <v>0</v>
+      </c>
+      <c r="G21" s="7">
+        <v>1</v>
+      </c>
+      <c r="H21" s="7">
+        <v>0</v>
+      </c>
+      <c r="I21" s="7">
+        <v>1</v>
+      </c>
+      <c r="J21" s="7">
+        <v>0</v>
+      </c>
+      <c r="K21" s="7">
+        <v>0</v>
+      </c>
+      <c r="L21" s="7">
+        <v>1</v>
+      </c>
+      <c r="M21" s="7">
+        <v>0</v>
+      </c>
+      <c r="N21" s="9">
+        <v>0.60399999999999998</v>
+      </c>
+      <c r="O21" s="9">
+        <v>0.65100000000000002</v>
+      </c>
+      <c r="P21" s="9">
+        <v>73.099556000000007</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" ht="30" customHeight="1">
+      <c r="C22" s="6">
+        <v>54</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="7">
+        <v>1</v>
+      </c>
+      <c r="F22" s="7">
+        <v>0</v>
+      </c>
+      <c r="G22" s="7">
+        <v>0</v>
+      </c>
+      <c r="H22" s="7">
+        <v>1</v>
+      </c>
+      <c r="I22" s="7">
+        <v>0</v>
+      </c>
+      <c r="J22" s="7">
+        <v>0</v>
+      </c>
+      <c r="K22" s="7">
+        <v>0</v>
+      </c>
+      <c r="L22" s="7">
+        <v>0</v>
+      </c>
+      <c r="M22" s="7">
+        <v>0</v>
+      </c>
+      <c r="N22" s="9">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="O22" s="9">
+        <v>0.65100000000000002</v>
+      </c>
+      <c r="P22" s="9">
+        <v>72.887900999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" ht="26">
+      <c r="C23" s="6">
+        <v>32</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" s="7">
+        <v>1</v>
+      </c>
+      <c r="F23" s="7">
+        <v>0</v>
+      </c>
+      <c r="G23" s="7">
+        <v>0</v>
+      </c>
+      <c r="H23" s="7">
+        <v>1</v>
+      </c>
+      <c r="I23" s="7">
+        <v>0</v>
+      </c>
+      <c r="J23" s="7">
+        <v>0</v>
+      </c>
+      <c r="K23" s="7">
+        <v>0</v>
+      </c>
+      <c r="L23" s="7">
+        <v>0</v>
+      </c>
+      <c r="M23" s="7">
+        <v>1</v>
+      </c>
+      <c r="N23" s="9">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="O23" s="9">
+        <v>0.65100000000000002</v>
+      </c>
+      <c r="P23" s="9">
+        <v>71.465050000000005</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" ht="26" customHeight="1">
+      <c r="C24" s="6">
+        <v>42</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" s="7">
+        <v>1</v>
+      </c>
+      <c r="F24" s="7">
+        <v>0</v>
+      </c>
+      <c r="G24" s="7">
+        <v>0</v>
+      </c>
+      <c r="H24" s="7">
+        <v>1</v>
+      </c>
+      <c r="I24" s="7">
+        <v>0</v>
+      </c>
+      <c r="J24" s="7">
+        <v>0</v>
+      </c>
+      <c r="K24" s="7">
+        <v>0</v>
+      </c>
+      <c r="L24" s="7">
+        <v>1</v>
+      </c>
+      <c r="M24" s="7">
+        <v>0</v>
+      </c>
+      <c r="N24" s="9">
+        <v>0.60399999999999998</v>
+      </c>
+      <c r="O24" s="9">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="P24" s="9">
+        <v>70.735641000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A61A2ED4-0FAE-8E46-906D-70B4DAB3B8B7}">
+  <dimension ref="A1:P5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P1" sqref="O1:P1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="2" max="2" width="18.33203125" customWidth="1"/>
+    <col min="3" max="11" width="2.83203125" customWidth="1"/>
+    <col min="12" max="12" width="9.1640625" style="10" customWidth="1"/>
+    <col min="13" max="13" width="8.33203125" style="10" customWidth="1"/>
+    <col min="14" max="14" width="8.5" style="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" s="14" customFormat="1" ht="258">
+      <c r="B1" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="N1" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="O1" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="P1" s="18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="11">
+        <v>68</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="12">
+        <v>0</v>
+      </c>
+      <c r="D2" s="12">
+        <v>1</v>
+      </c>
+      <c r="E2" s="12">
+        <v>0</v>
+      </c>
+      <c r="F2" s="12">
+        <v>0</v>
+      </c>
+      <c r="G2" s="12">
+        <v>0</v>
+      </c>
+      <c r="H2" s="12">
+        <v>0</v>
+      </c>
+      <c r="I2" s="12">
+        <v>0</v>
+      </c>
+      <c r="J2" s="12">
+        <v>0</v>
+      </c>
+      <c r="K2" s="12">
+        <v>1</v>
+      </c>
+      <c r="L2" s="17">
+        <v>0.151</v>
+      </c>
+      <c r="M2" s="17">
+        <v>0.22</v>
+      </c>
+      <c r="N2" s="17">
+        <v>67.037627999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="11">
+        <v>60</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="12">
+        <v>0</v>
+      </c>
+      <c r="D3" s="12">
+        <v>1</v>
+      </c>
+      <c r="E3" s="12">
+        <v>0</v>
+      </c>
+      <c r="F3" s="12">
+        <v>0</v>
+      </c>
+      <c r="G3" s="12">
+        <v>0</v>
+      </c>
+      <c r="H3" s="12">
+        <v>0</v>
+      </c>
+      <c r="I3" s="12">
+        <v>0</v>
+      </c>
+      <c r="J3" s="12">
+        <v>0</v>
+      </c>
+      <c r="K3" s="12">
+        <v>1</v>
+      </c>
+      <c r="L3" s="17">
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="M3" s="17">
+        <v>0.22</v>
+      </c>
+      <c r="N3" s="17">
+        <v>63.085140000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="11">
+        <v>66</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="12">
+        <v>0</v>
+      </c>
+      <c r="D4" s="12">
+        <v>1</v>
+      </c>
+      <c r="E4" s="12">
+        <v>0</v>
+      </c>
+      <c r="F4" s="12">
+        <v>0</v>
+      </c>
+      <c r="G4" s="12">
+        <v>0</v>
+      </c>
+      <c r="H4" s="12">
+        <v>0</v>
+      </c>
+      <c r="I4" s="12">
+        <v>0</v>
+      </c>
+      <c r="J4" s="12">
+        <v>0</v>
+      </c>
+      <c r="K4" s="12">
+        <v>1</v>
+      </c>
+      <c r="L4" s="17">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="M4" s="17">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="N4" s="17">
+        <v>59.863998000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="28">
+      <c r="A5" s="13"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0243521F-27F3-2743-B8B9-8A5271B55C04}">
+  <dimension ref="A1:N17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="3" width="10.83203125" style="10"/>
+    <col min="5" max="6" width="10.83203125" style="10"/>
+    <col min="10" max="14" width="10.83203125" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="17" thickBot="1">
+      <c r="A1" s="19">
+        <v>45.736747999999999</v>
+      </c>
+      <c r="B1" s="19">
+        <v>15.818180999999999</v>
+      </c>
+      <c r="C1" s="19">
+        <v>4157.8861820000002</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="17" thickBot="1">
+      <c r="A2" s="19">
+        <v>37.722335999999999</v>
+      </c>
+      <c r="B2" s="19">
+        <v>4.0434780000000003</v>
+      </c>
+      <c r="C2" s="19">
+        <v>1640.1015649999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="17" thickBot="1">
+      <c r="A3" s="19">
+        <v>43.088923999999999</v>
+      </c>
+      <c r="B3" s="19">
+        <v>3.7352940000000001</v>
+      </c>
+      <c r="C3" s="19">
+        <v>1267.32122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="17" thickBot="1">
+      <c r="A4" s="19">
+        <v>39.460555999999997</v>
+      </c>
+      <c r="B4" s="19">
+        <v>21.529409999999999</v>
+      </c>
+      <c r="C4" s="19">
+        <v>1160.6045200000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="17" thickBot="1">
+      <c r="A5" s="19">
+        <v>34.578991000000002</v>
+      </c>
+      <c r="B5" s="19">
+        <v>9.8103449999999999</v>
+      </c>
+      <c r="C5" s="19">
+        <v>596.18952100000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="17" thickBot="1">
+      <c r="A6" s="19">
+        <v>55.375453999999998</v>
+      </c>
+      <c r="B6" s="19">
+        <v>1.365591</v>
+      </c>
+      <c r="C6" s="19">
+        <v>595.43497600000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="17" thickBot="1">
+      <c r="A7" s="19">
+        <v>59.863998000000002</v>
+      </c>
+      <c r="B7" s="19">
+        <v>0.59482800000000002</v>
+      </c>
+      <c r="C7" s="19">
+        <v>516.06894799999998</v>
+      </c>
+      <c r="J7" s="19">
+        <v>0.73199999999999998</v>
+      </c>
+      <c r="K7" s="19">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="L7" s="19">
+        <v>39.460555999999997</v>
+      </c>
+      <c r="M7" s="19">
+        <v>21.529409999999999</v>
+      </c>
+      <c r="N7" s="19">
+        <v>1160.6045200000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="17" thickBot="1">
+      <c r="A8" s="19">
+        <v>52.825946999999999</v>
+      </c>
+      <c r="B8" s="19">
+        <v>0.59482800000000002</v>
+      </c>
+      <c r="C8" s="19">
+        <v>455.396095</v>
+      </c>
+      <c r="E8" s="19">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="F8" s="19">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="J8" s="19">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="K8" s="19">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="L8" s="19">
+        <v>45.736747999999999</v>
+      </c>
+      <c r="M8" s="19">
+        <v>15.818180999999999</v>
+      </c>
+      <c r="N8" s="19">
+        <v>4157.8861820000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="17" thickBot="1">
+      <c r="A9" s="19">
+        <v>29.703690999999999</v>
+      </c>
+      <c r="B9" s="19">
+        <v>10.608696</v>
+      </c>
+      <c r="C9" s="19">
+        <v>430.48828800000001</v>
+      </c>
+      <c r="E9" s="19">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="F9" s="19">
+        <v>2.3E-2</v>
+      </c>
+      <c r="J9" s="19">
+        <v>0.73199999999999998</v>
+      </c>
+      <c r="K9" s="19">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="L9" s="19">
+        <v>29.703690999999999</v>
+      </c>
+      <c r="M9" s="19">
+        <v>10.608696</v>
+      </c>
+      <c r="N9" s="19">
+        <v>430.48828800000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="17" thickBot="1">
+      <c r="A10" s="19">
+        <v>34.722000000000001</v>
+      </c>
+      <c r="B10" s="19">
+        <v>2.7160489999999999</v>
+      </c>
+      <c r="C10" s="19">
+        <v>428.66666700000002</v>
+      </c>
+      <c r="E10" s="19">
+        <v>0.127</v>
+      </c>
+      <c r="F10" s="19">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="J10" s="19">
+        <v>0.56899999999999995</v>
+      </c>
+      <c r="K10" s="19">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="L10" s="19">
+        <v>34.578991000000002</v>
+      </c>
+      <c r="M10" s="19">
+        <v>9.8103449999999999</v>
+      </c>
+      <c r="N10" s="19">
+        <v>596.18952100000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="17" thickBot="1">
+      <c r="E11" s="19">
+        <v>0.73199999999999998</v>
+      </c>
+      <c r="F11" s="19">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="J11" s="19">
+        <v>0.58099999999999996</v>
+      </c>
+      <c r="K11" s="19">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="L11" s="19">
+        <v>37.348522000000003</v>
+      </c>
+      <c r="M11" s="19">
+        <v>5.0086199999999996</v>
+      </c>
+      <c r="N11" s="19">
+        <v>321.97001699999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="17" thickBot="1">
+      <c r="E12" s="19">
+        <v>0.56899999999999995</v>
+      </c>
+      <c r="F12" s="19">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="J12" s="19">
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="K12" s="19">
+        <v>0.22</v>
+      </c>
+      <c r="L12" s="19">
+        <v>55.103695000000002</v>
+      </c>
+      <c r="M12" s="19">
+        <v>4.2772730000000001</v>
+      </c>
+      <c r="N12" s="19">
+        <v>250.471341</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="17" thickBot="1">
+      <c r="E13" s="19">
+        <v>0.127</v>
+      </c>
+      <c r="F13" s="19">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="J13" s="19">
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="K13" s="19">
+        <v>0.22</v>
+      </c>
+      <c r="L13" s="19">
+        <v>63.085140000000003</v>
+      </c>
+      <c r="M13" s="19">
+        <v>4.2772730000000001</v>
+      </c>
+      <c r="N13" s="19">
+        <v>286.75063599999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="17" thickBot="1">
+      <c r="E14" s="19">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="F14" s="19">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="J14" s="19">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="K14" s="19">
+        <v>2.3E-2</v>
+      </c>
+      <c r="L14" s="19">
+        <v>37.722335999999999</v>
+      </c>
+      <c r="M14" s="19">
+        <v>4.0434780000000003</v>
+      </c>
+      <c r="N14" s="19">
+        <v>1640.1015649999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="17" thickBot="1">
+      <c r="E15" s="19">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="F15" s="19">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="J15" s="19">
+        <v>0.127</v>
+      </c>
+      <c r="K15" s="19">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="L15" s="19">
+        <v>43.088923999999999</v>
+      </c>
+      <c r="M15" s="19">
+        <v>3.7352940000000001</v>
+      </c>
+      <c r="N15" s="19">
+        <v>1267.32122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="17" thickBot="1">
+      <c r="E16" s="19">
+        <v>0.73199999999999998</v>
+      </c>
+      <c r="F16" s="19">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="J16" s="19">
+        <v>0.872</v>
+      </c>
+      <c r="K16" s="19">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="L16" s="19">
+        <v>42.849144000000003</v>
+      </c>
+      <c r="M16" s="19">
+        <v>3.125448</v>
+      </c>
+      <c r="N16" s="19">
+        <v>153.58115599999999</v>
+      </c>
+    </row>
+    <row r="17" spans="5:6" ht="17" thickBot="1">
+      <c r="E17" s="19">
+        <v>0.22</v>
+      </c>
+      <c r="F17" s="19">
+        <v>8.1000000000000003E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E87E446D-D988-094C-8539-5FACCA384266}">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="14.83203125" customWidth="1"/>
+    <col min="2" max="2" width="19.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="24">
+        <v>61</v>
+      </c>
+      <c r="C2" s="24">
+        <v>19.899999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="24">
+        <v>44</v>
+      </c>
+      <c r="C3" s="24">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="24">
+        <v>57</v>
+      </c>
+      <c r="C4" s="24">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="24">
+        <v>64</v>
+      </c>
+      <c r="C5" s="24">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="24">
+        <v>60</v>
+      </c>
+      <c r="C6" s="24">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="24">
+        <v>66</v>
+      </c>
+      <c r="C7" s="24">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="24">
+        <v>41</v>
+      </c>
+      <c r="C8" s="24">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="24">
+        <v>61</v>
+      </c>
+      <c r="C9" s="24">
+        <v>-0.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="24">
+        <v>47</v>
+      </c>
+      <c r="C10" s="24">
+        <v>-4.9000000000000004</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>